--- a/wcsa5seleniumproject/data/ActitimeTestData.xlsx
+++ b/wcsa5seleniumproject/data/ActitimeTestData.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" r:id="rId1"/>
     <sheet name="invalidcreds" sheetId="2" r:id="rId2"/>
+    <sheet name="managercreds" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>UserName</t>
   </si>
@@ -57,6 +58,30 @@
   </si>
   <si>
     <t>abcd0</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>Rohit_66</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>Virat</t>
+  </si>
+  <si>
+    <t>Kohli</t>
   </si>
 </sst>
 </file>
@@ -98,9 +123,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -525,4 +551,53 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>